--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -4402,7 +4402,7 @@
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>&lt;REPLACE&gt;</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>&lt;REPLACE&gt;</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">

--- a/result_data.xlsx
+++ b/result_data.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -429,67 +429,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Art</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kostenstelle</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Num</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Beschreibung</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Kostenart</t>
+          <t>Memo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Betrag</t>
+          <t>Account</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Datum</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Jahr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Beschaffungsklasse</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CKA</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Referenz</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Edit</t>
         </is>
